--- a/PlantillaEstimacionUCP.xlsx
+++ b/PlantillaEstimacionUCP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sexto semestre\Desarrollo de software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E49FA4-302C-403E-8961-865EA881700C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5C9F1B-0759-4282-BDE0-ED9D3D0EA747}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" tabRatio="752" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1235,7 +1235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1308,6 +1308,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="40">
     <border>
@@ -1778,7 +1796,7 @@
     <xf numFmtId="9" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="47" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2209,71 +2227,71 @@
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2295,6 +2313,15 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4250,40 +4277,40 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="198" t="s">
+      <c r="B3" s="216" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
+      <c r="C3" s="216"/>
+      <c r="D3" s="216"/>
+      <c r="E3" s="216"/>
+      <c r="F3" s="216"/>
+      <c r="G3" s="216"/>
+      <c r="H3" s="216"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="199" t="s">
+      <c r="B4" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="199"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="G4" s="199"/>
-      <c r="H4" s="199"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="125"/>
     </row>
     <row r="8" spans="2:11" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="211" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="203"/>
-      <c r="E8" s="203"/>
-      <c r="F8" s="203"/>
-      <c r="G8" s="203"/>
-      <c r="H8" s="204"/>
+      <c r="C8" s="212"/>
+      <c r="D8" s="212"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="212"/>
+      <c r="H8" s="213"/>
     </row>
     <row r="9" spans="2:11" ht="18" x14ac:dyDescent="0.35">
       <c r="B9" s="104"/>
@@ -4315,10 +4342,10 @@
       <c r="F10" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="209" t="s">
+      <c r="G10" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="210"/>
+      <c r="H10" s="215"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
@@ -4337,10 +4364,10 @@
         <f t="shared" ref="F11:F23" si="0">E11*D11</f>
         <v>2</v>
       </c>
-      <c r="G11" s="207" t="s">
+      <c r="G11" s="209" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="208"/>
+      <c r="H11" s="210"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -4622,15 +4649,15 @@
       <c r="H24" s="112"/>
     </row>
     <row r="27" spans="2:8" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B27" s="202" t="s">
+      <c r="B27" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="203"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="203"/>
-      <c r="F27" s="203"/>
-      <c r="G27" s="203"/>
-      <c r="H27" s="204"/>
+      <c r="C27" s="212"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
+      <c r="H27" s="213"/>
     </row>
     <row r="28" spans="2:8" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="105"/>
@@ -4662,10 +4689,10 @@
       <c r="F29" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="205" t="s">
+      <c r="G29" s="218" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="206"/>
+      <c r="H29" s="219"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
@@ -4684,8 +4711,8 @@
         <f t="shared" ref="F30:F37" si="1">E30*D30</f>
         <v>1.5</v>
       </c>
-      <c r="G30" s="207"/>
-      <c r="H30" s="208"/>
+      <c r="G30" s="209"/>
+      <c r="H30" s="210"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="18" t="s">
@@ -4842,26 +4869,26 @@
       <c r="H38" s="138"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B40" s="213" t="s">
+      <c r="B40" s="202" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="F40" s="217" t="s">
+      <c r="C40" s="203"/>
+      <c r="F40" s="206" t="s">
         <v>66</v>
       </c>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
+      <c r="G40" s="207"/>
+      <c r="H40" s="207"/>
     </row>
     <row r="41" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="215" t="s">
+      <c r="B41" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="216"/>
-      <c r="F41" s="215" t="s">
+      <c r="C41" s="205"/>
+      <c r="F41" s="204" t="s">
         <v>113</v>
       </c>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
+      <c r="G41" s="208"/>
+      <c r="H41" s="208"/>
     </row>
     <row r="42" spans="2:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="139" t="s">
@@ -4873,13 +4900,25 @@
       <c r="F42" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="G42" s="211">
+      <c r="G42" s="198">
         <v>4</v>
       </c>
-      <c r="H42" s="212"/>
+      <c r="H42" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="G42:H42"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="B40:C40"/>
@@ -4896,18 +4935,6 @@
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
@@ -4925,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="122" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4991,7 +5018,7 @@
       <c r="B5" s="12">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="227" t="s">
         <v>195</v>
       </c>
       <c r="D5" s="25" t="s">
@@ -5013,7 +5040,7 @@
       <c r="B6" s="12">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="227" t="s">
         <v>196</v>
       </c>
       <c r="D6" s="25" t="s">
@@ -5035,7 +5062,7 @@
       <c r="B7" s="12">
         <v>3</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="227" t="s">
         <v>197</v>
       </c>
       <c r="D7" s="25" t="s">
@@ -5057,7 +5084,7 @@
       <c r="B8" s="12">
         <v>4</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="227" t="s">
         <v>198</v>
       </c>
       <c r="D8" s="25" t="s">
@@ -5079,7 +5106,7 @@
       <c r="B9" s="12">
         <v>5</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="229" t="s">
         <v>199</v>
       </c>
       <c r="D9" s="25" t="s">
@@ -5101,7 +5128,7 @@
       <c r="B10" s="12">
         <v>6</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="229" t="s">
         <v>200</v>
       </c>
       <c r="D10" s="25" t="s">
@@ -5123,7 +5150,7 @@
       <c r="B11" s="12">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="229" t="s">
         <v>201</v>
       </c>
       <c r="D11" s="25" t="s">
@@ -5145,7 +5172,7 @@
       <c r="B12" s="12">
         <v>8</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="229" t="s">
         <v>202</v>
       </c>
       <c r="D12" s="25" t="s">
@@ -5167,7 +5194,7 @@
       <c r="B13" s="12">
         <v>9</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="227" t="s">
         <v>203</v>
       </c>
       <c r="D13" s="25" t="s">
@@ -5189,7 +5216,7 @@
       <c r="B14" s="12">
         <v>10</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="227" t="s">
         <v>204</v>
       </c>
       <c r="D14" s="25" t="s">
@@ -5233,7 +5260,7 @@
       <c r="B16" s="12">
         <v>12</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="227" t="s">
         <v>206</v>
       </c>
       <c r="D16" s="25" t="s">
@@ -5255,7 +5282,7 @@
       <c r="B17" s="12">
         <v>13</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="229" t="s">
         <v>207</v>
       </c>
       <c r="D17" s="25" t="s">
@@ -5277,7 +5304,7 @@
       <c r="B18" s="12">
         <v>14</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="229" t="s">
         <v>208</v>
       </c>
       <c r="D18" s="25" t="s">
@@ -5365,7 +5392,7 @@
       <c r="B22" s="12">
         <v>18</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="229" t="s">
         <v>211</v>
       </c>
       <c r="D22" s="25" t="s">
@@ -5431,7 +5458,7 @@
       <c r="B25" s="12">
         <v>21</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="228" t="s">
         <v>215</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -5453,7 +5480,7 @@
       <c r="B26" s="12">
         <v>22</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="228" t="s">
         <v>216</v>
       </c>
       <c r="D26" s="25" t="s">
@@ -5475,7 +5502,7 @@
       <c r="B27" s="12">
         <v>23</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="228" t="s">
         <v>217</v>
       </c>
       <c r="D27" s="25" t="s">
@@ -5497,7 +5524,7 @@
       <c r="B28" s="12">
         <v>24</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="228" t="s">
         <v>218</v>
       </c>
       <c r="D28" s="25" t="s">
@@ -5519,7 +5546,7 @@
       <c r="B29" s="12">
         <v>25</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="228" t="s">
         <v>219</v>
       </c>
       <c r="D29" s="25" t="s">
@@ -5541,7 +5568,7 @@
       <c r="B30" s="12">
         <v>26</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="228" t="s">
         <v>220</v>
       </c>
       <c r="D30" s="25" t="s">
@@ -5563,7 +5590,7 @@
       <c r="B31" s="12">
         <v>27</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="228" t="s">
         <v>221</v>
       </c>
       <c r="D31" s="25" t="s">
@@ -7717,6 +7744,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Status xmlns="035E5738-9077-49AA-867C-265905AEBD06">Final</Status>
@@ -7729,19 +7769,6 @@
     </Owner>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7829,17 +7856,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41BF059D-5B27-49EC-990E-9B2C61BF22F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B31A9657-F60B-4F85-99EC-12093FFD5B62}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="035E5738-9077-49AA-867C-265905AEBD06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7853,9 +7872,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B31A9657-F60B-4F85-99EC-12093FFD5B62}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41BF059D-5B27-49EC-990E-9B2C61BF22F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="035E5738-9077-49AA-867C-265905AEBD06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
